--- a/Masters/Character/CharacterMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A241E0B-D22B-48D8-83E8-7B8D45F96171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CB5D4-93C7-4AFA-B443-A4CCE10ACDAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26625" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>キャラクターID</t>
   </si>
@@ -175,9 +175,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -218,13 +215,24 @@
   </si>
   <si>
     <t>ThumbnailAtlas</t>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>uint?</t>
+  </si>
+  <si>
+    <t>uint?</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -258,6 +266,11 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,6 +316,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,41 +765,41 @@
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -801,40 +817,40 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>

--- a/Masters/Character/CharacterMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterMaster/ClassSchema.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CB5D4-93C7-4AFA-B443-A4CCE10ACDAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9155E-2FCB-4FEB-81D4-749EF847640E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26625" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -642,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Masters/Character/CharacterMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterMaster/ClassSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D9155E-2FCB-4FEB-81D4-749EF847640E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C841F-27A6-401C-B621-D73820090AD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26625" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29925" yWindow="570" windowWidth="26655" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>キャラクターID</t>
   </si>
@@ -232,6 +233,14 @@
   </si>
   <si>
     <t>uint?</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">kari </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>---</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -239,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -278,6 +287,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,6 +341,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,68 +666,70 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="8"/>
-    <col min="3" max="3" width="28.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="8"/>
-    <col min="6" max="6" width="13.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="14.42578125" style="8"/>
+    <col min="1" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="8"/>
+    <col min="4" max="4" width="28.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="8"/>
+    <col min="7" max="7" width="13.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -719,14 +742,13 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -757,7 +779,9 @@
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -770,22 +794,23 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>14</v>
@@ -793,22 +818,24 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -821,45 +848,48 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -872,11 +902,15 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5">
+        <f>SUM(A5,C5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -885,8 +919,8 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -899,11 +933,12 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -912,8 +947,8 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -926,11 +961,12 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -939,8 +975,8 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -953,11 +989,12 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -966,8 +1003,8 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -980,20 +1017,21 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="7"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -1006,20 +1044,21 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -1032,20 +1071,21 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -1058,20 +1098,21 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1084,20 +1125,21 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1110,20 +1152,21 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1136,20 +1179,21 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -1162,20 +1206,21 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -1188,20 +1233,21 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -1214,11 +1260,12 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1227,8 +1274,8 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -1241,11 +1288,12 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1254,8 +1302,8 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -1268,20 +1316,21 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -1294,6 +1343,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>

--- a/Masters/Character/CharacterMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterMaster/ClassSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C841F-27A6-401C-B621-D73820090AD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265376FC-8083-4F10-AB06-1407A582B7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="570" windowWidth="26655" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="26655" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,6 +42,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>頭3桁：識別 100 : 通常
 下3桁：プロフィールID</t>
@@ -53,6 +56,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>0 : 不明
 1 : コモン
@@ -71,6 +75,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>0 : 不明
 1 : 火属性
@@ -89,6 +94,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>0 : 不明
 1 : ディフェンダー
@@ -107,6 +113,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>0または空欄でスキルなし</t>
         </r>
@@ -119,6 +126,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>0または空欄でスキルなし</t>
         </r>
@@ -131,6 +139,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">0または空欄でスキルなし
 </t>
@@ -237,11 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">kari </t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>---</t>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -258,23 +265,28 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -288,8 +300,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,10 +355,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,12 +691,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="8"/>
     <col min="4" max="4" width="28.28515625" style="8" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="8" customWidth="1"/>
@@ -748,7 +770,7 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
@@ -800,7 +822,7 @@
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -854,7 +876,7 @@
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -906,8 +928,8 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="5">
-        <f>SUM(A5,C5)</f>
+      <c r="B5" s="13">
+        <f t="shared" ref="B5:B19" si="0">SUM(A5,C5)</f>
         <v>0</v>
       </c>
       <c r="C5" s="6"/>
@@ -937,7 +959,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -965,7 +987,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -993,7 +1015,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1021,7 +1043,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="F9" s="5"/>
@@ -1048,7 +1070,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
@@ -1075,7 +1097,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="F11" s="5"/>
@@ -1102,7 +1124,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="F12" s="5"/>
@@ -1129,7 +1151,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
       <c r="F13" s="5"/>
@@ -1156,7 +1178,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="F14" s="5"/>
@@ -1183,7 +1205,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="F15" s="5"/>
@@ -1210,7 +1232,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="F16" s="5"/>
@@ -1237,7 +1259,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="F17" s="5"/>
@@ -1264,7 +1286,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1292,7 +1314,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1320,7 +1342,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="F20" s="5"/>
